--- a/catalogo.xlsx
+++ b/catalogo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martin/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martin/Desktop/Softtek/examSofttek/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E338FAD-CF36-0546-93A3-A04A2448DD97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DB6ADDA-C86C-D84A-B812-C022351E5B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{A2638947-19C5-B44F-9A73-FD39ACB2BC73}"/>
+    <workbookView xWindow="3560" yWindow="500" windowWidth="25240" windowHeight="17500" xr2:uid="{A2638947-19C5-B44F-9A73-FD39ACB2BC73}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>SKU</t>
   </si>
@@ -65,9 +65,6 @@
     <t>Termo</t>
   </si>
   <si>
-    <t>https://www.google.com/url?sa=i&amp;url=https%3A%2F%2Fwww.innovasport.com%2Fcaballeros%2Ffutbol%2Ftextil%2Fadidas%2Fjersey-adidas-seleccion-nacional-de-mexico-local-mundial-2022-authentic%2Fp%2F000000000000236468&amp;psig=AOvVaw3fkBoXl_TURrpu_HsA-iSO&amp;ust=1710400884617000&amp;source=images&amp;cd=vfe&amp;opi=89978449&amp;ved=0CBMQjRxqFwoTCPjW2frZ8IQDFQAAAAAdAAAAABAE</t>
-  </si>
-  <si>
     <t>https://martimx.vtexassets.com/arquivos/ids/492571-800-800?v=637351923825130000&amp;width=800&amp;height=800&amp;aspect=true</t>
   </si>
   <si>
@@ -75,18 +72,46 @@
   </si>
   <si>
     <t>https://everestfort.com.mx/wp-content/uploads/2023/04/termo-acero-inoxidable-30oz-gris-oscuro.jpg</t>
+  </si>
+  <si>
+    <t>https://media.revistagq.com/photos/5ca5fa46bda59485bd33e348/4:3/w_980,h_735,c_limit/camisetas_futbol_por_la_calle_8967.jpg</t>
+  </si>
+  <si>
+    <t>A01</t>
+  </si>
+  <si>
+    <t>A02</t>
+  </si>
+  <si>
+    <t>A03</t>
+  </si>
+  <si>
+    <t>A04</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF33CCCC"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -110,8 +135,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -449,7 +476,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="H14" sqref="H14:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -462,88 +489,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1001</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
-        <v>30.99</v>
-      </c>
-      <c r="D2">
-        <v>60.99</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
+      <c r="C2" s="1">
+        <v>30</v>
+      </c>
+      <c r="D2" s="1">
+        <v>60</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1002</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
-        <v>15.99</v>
-      </c>
-      <c r="D3">
-        <v>30.99</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
+      <c r="C3" s="1">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1">
+        <v>30</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>1003</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4">
-        <v>35.99</v>
-      </c>
-      <c r="D4">
-        <v>70.989999999999995</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
+      <c r="C4" s="1">
+        <v>35</v>
+      </c>
+      <c r="D4" s="1">
+        <v>70</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>1004</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5">
-        <v>25.99</v>
-      </c>
-      <c r="D5">
-        <v>50.99</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
+      <c r="C5" s="1">
+        <v>25</v>
+      </c>
+      <c r="D5" s="1">
+        <v>50</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
